--- a/Human/Position_Related_Plots/Human_Vitreous_Humor_Results_Top_Vitreous.xlsx
+++ b/Human/Position_Related_Plots/Human_Vitreous_Humor_Results_Top_Vitreous.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github for Jabias project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Human/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF3B3AC-DF1D-424C-8FA0-7F876F257BF5}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D520B74B-A4E9-41D1-83F2-FCC8CDF50EB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59317904-1CB2-4F02-821F-D90C999A7FF6}">
-  <dimension ref="A2:O205"/>
+  <dimension ref="A2:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +666,6 @@
       <c r="E9">
         <v>176.05356247878137</v>
       </c>
-      <c r="F9">
-        <f>E9/1000000/149000</f>
-        <v>1.1815675334146401E-9</v>
-      </c>
       <c r="G9">
         <v>2</v>
       </c>
@@ -1775,7 +1771,7 @@
         <v>2.3296589883394503E-3</v>
       </c>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>22</v>
       </c>
@@ -1801,7 +1797,7 @@
         <v>1.7741591516602406E-3</v>
       </c>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>22.5</v>
       </c>
@@ -1827,7 +1823,7 @@
         <v>1.3502599190729967E-3</v>
       </c>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>23</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>1.0281905952219388E-3</v>
       </c>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>23.5</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>7.8266397249363549E-4</v>
       </c>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>24</v>
       </c>
@@ -1905,7 +1901,7 @@
         <v>5.9588437253392469E-4</v>
       </c>
     </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>24.5</v>
       </c>
@@ -1931,7 +1927,7 @@
         <v>4.537080198505879E-4</v>
       </c>
     </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>25</v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>3.453551910665951E-4</v>
       </c>
     </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>25.5</v>
       </c>
@@ -1983,7 +1979,7 @@
         <v>2.6300386037881343E-4</v>
       </c>
     </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>26</v>
       </c>
@@ -2009,7 +2005,7 @@
         <v>2.0016795014015022E-4</v>
       </c>
     </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>26.5</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>1.5242059458891514E-4</v>
       </c>
     </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>27</v>
       </c>
@@ -2061,7 +2057,7 @@
         <v>1.1602651705251982E-4</v>
       </c>
     </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>27.5</v>
       </c>
@@ -2087,49 +2083,33 @@
         <v>8.8335136516183178E-5</v>
       </c>
     </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>28</v>
       </c>
       <c r="E61">
         <v>5.7263103932089532</v>
       </c>
-      <c r="F61">
-        <f>E61/1000000/149000</f>
-        <v>3.8431613377241299E-11</v>
-      </c>
       <c r="G61">
         <v>28</v>
       </c>
       <c r="H61">
         <v>2.6625666142320189E-5</v>
       </c>
-      <c r="I61">
-        <f>H61/1000000/149000</f>
-        <v>1.78695745921612E-16</v>
-      </c>
       <c r="J61">
         <v>28</v>
       </c>
       <c r="K61">
         <v>25.074542475359696</v>
       </c>
-      <c r="L61">
-        <f>K61/1000000/149000</f>
-        <v>1.6828551996885701E-10</v>
-      </c>
       <c r="M61">
         <v>28</v>
       </c>
       <c r="N61">
         <v>6.7261170165980989E-5</v>
       </c>
-      <c r="O61">
-        <f>N61/1000000/149000</f>
-        <v>4.5141724943611399E-16</v>
-      </c>
-    </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>28.5</v>
       </c>
@@ -2155,7 +2135,7 @@
         <v>5.1196468570438617E-5</v>
       </c>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>29</v>
       </c>
@@ -2181,7 +2161,7 @@
         <v>3.8988065538134802E-5</v>
       </c>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>29.5</v>
       </c>
@@ -5875,15 +5855,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
